--- a/ブログ一覧_単体テスト.xlsx
+++ b/ブログ一覧_単体テスト.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/tanntaitest/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/264754842b9ba5ef/デスクトップ/kadai/unit-test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{413713C2-9B33-4CB8-86A0-A36CBAAF61D9}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{116B13CA-06EB-417D-9555-FC6399ED6A93}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8D3CFB42-59D5-4CF3-9C4F-4C1D2304FFC0}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
+    <workbookView xWindow="4070" yWindow="1130" windowWidth="16920" windowHeight="10340" xr2:uid="{B462155A-29E6-4E7A-8661-60DC22FDF8EA}"/>
   </bookViews>
   <sheets>
     <sheet name="ブログ一覧画面" sheetId="1" r:id="rId1"/>
@@ -1192,8 +1192,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB39F5B-1FA5-42C8-949E-8DCEC752D35D}">
   <dimension ref="A1:I25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="79" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView tabSelected="1" topLeftCell="F7" zoomScale="79" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.55000000000000004"/>
@@ -1204,7 +1204,7 @@
     <col min="4" max="4" width="102.1640625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="43.75" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="65.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="11.08203125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.58203125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="45.58203125" bestFit="1" customWidth="1"/>
   </cols>
@@ -1244,7 +1244,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3">
-        <v>45990</v>
+        <v>46015</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.55000000000000004">
@@ -1298,8 +1298,8 @@
       <c r="F8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G8" s="4">
-        <v>45992</v>
+      <c r="G8" s="3">
+        <v>46016</v>
       </c>
       <c r="H8" s="2" t="s">
         <v>42</v>
@@ -1336,8 +1336,8 @@
       <c r="F10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="G10" s="4">
-        <v>45992</v>
+      <c r="G10" s="3">
+        <v>46016</v>
       </c>
       <c r="H10" s="2" t="s">
         <v>42</v>
@@ -1374,8 +1374,8 @@
       <c r="F12" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="4">
-        <v>45992</v>
+      <c r="G12" s="3">
+        <v>46016</v>
       </c>
       <c r="H12" s="2" t="s">
         <v>42</v>
@@ -1412,8 +1412,8 @@
       <c r="F14" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="G14" s="4">
-        <v>45992</v>
+      <c r="G14" s="3">
+        <v>46016</v>
       </c>
       <c r="H14" s="2" t="s">
         <v>42</v>
@@ -1450,8 +1450,8 @@
       <c r="F16" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G16" s="4">
-        <v>45992</v>
+      <c r="G16" s="3">
+        <v>46016</v>
       </c>
       <c r="H16" s="2" t="s">
         <v>42</v>
@@ -1488,8 +1488,8 @@
       <c r="F18" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="G18" s="4">
-        <v>45992</v>
+      <c r="G18" s="3">
+        <v>46016</v>
       </c>
       <c r="H18" s="2" t="s">
         <v>42</v>
@@ -1526,8 +1526,8 @@
       <c r="F20" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="G20" s="4">
-        <v>45992</v>
+      <c r="G20" s="3">
+        <v>46016</v>
       </c>
       <c r="H20" s="2" t="s">
         <v>42</v>
@@ -1564,8 +1564,8 @@
       <c r="F22" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G22" s="4">
-        <v>45998</v>
+      <c r="G22" s="3">
+        <v>46016</v>
       </c>
       <c r="H22" s="2" t="s">
         <v>42</v>
@@ -1602,8 +1602,8 @@
       <c r="F24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="G24" s="4">
-        <v>45992</v>
+      <c r="G24" s="3">
+        <v>46016</v>
       </c>
       <c r="H24" s="2" t="s">
         <v>42</v>
